--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/31_Erzurum_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/31_Erzurum_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D45B494D-3BB2-4DDD-9DE4-31A573BF28AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4E9D88E-6817-4DBF-A827-A2071F738040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{A4CBF4B8-CCA1-4680-A24E-A0D1D5EAB906}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{F862B01D-A964-4075-82DA-E7DD81C19913}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{ACBCE609-4233-4687-B670-568204CE8D8B}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E28E8E3F-1ACA-442A-AA51-4AD0E8354D12}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{C3A652C8-7A31-4BA6-A4C0-23B406437859}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{7936B4E4-8C64-4ED4-B3F4-A1A5C7354A63}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{216709B6-237A-40C7-B8A8-CA1BFD8F4896}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{6C8F2F86-66F6-4898-9362-C328E6DCB50D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{9C96C97D-8862-4671-A6E6-FCDD51D53B97}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{98D9C80C-9DB8-442F-9E9F-6C8CFC38A8C0}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8E2399E2-9C5F-41AD-951A-BAA5C6D41131}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{77FE37A3-C424-4C7E-9CE8-C13733F5CA5C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{92C0C3A7-53C6-4F9D-AC0D-CFDB68E815F5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{97F18959-43F7-4812-807B-4015CCD9D82B}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{829F3446-2E66-40EE-BB19-DA5BE83FB1E8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{69F4311B-649B-4103-A424-0C4F7AA09887}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EE59CB-DB84-4E62-B251-FBECF0AA04A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E21F24F-92C5-43E4-974F-188BEFCF6A78}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2575,7 +2575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A49B6BE-F4CC-476C-B3E3-C08BA0D62B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE46851E-37EA-4C5E-89CF-92D4BF2D4BEC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3808,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E36118-F184-4723-9433-153C4FB8F06F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4129E2-50C8-4FF2-A522-5BD359DD182B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5037,7 +5037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8283761-69B2-4384-9C62-5E724D2887C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90885F02-8E99-42AE-929D-12F1BA381069}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6250,7 +6250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EF991-43DA-43B5-BABE-CD490C5002D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC71276-FD63-46A5-9FBD-00632776C172}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7533,7 +7533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FA29E-AAE8-410D-87AF-A69BCBA22A8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F47CCA-BA7E-46C3-B1C3-FCBDFF53E964}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8816,7 +8816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257ED7AC-E216-44FD-91B7-099D907F1BB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97418C13-0697-47CC-BC9F-6C9CE58B32E9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10099,7 +10099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42B7B42-7E4A-4CB8-8A66-F890F53EDBE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B7DFE1-753A-433B-A17A-7781C94CEED3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11382,7 +11382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E65542-AAC7-4EAE-9466-E0545ED6CACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E50EA7-53F3-406C-AC21-45D1490364D7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12657,7 +12657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C041CAC-7018-48D4-BD32-C27C4B0B7450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CFE3EA-1894-4862-AE47-692687525594}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13920,7 +13920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9576F872-4643-46C7-BD37-9EB2D3C36B99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C0F493-658B-41FF-97BA-5141A6FFFF38}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15179,7 +15179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E4C70-254F-42DF-BEFC-B5D15941BE39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A747E057-55A4-4FA9-9E17-FFC688FFAA85}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
